--- a/Testing/Testdokumente/systemtest.xlsx
+++ b/Testing/Testdokumente/systemtest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobin/Desktop/HS-Offenburg/Projekt 2/Documentation/Testdokumente/Systemtest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josua_duyp43m\Documents\Documentation\Testing\Testdokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267995C5-199E-E948-B13E-D61EA1CA1EE2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{07CBFBDB-3988-461D-BD12-091B9B339A36}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="16215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="118">
   <si>
     <t>Nr.</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Anmeldung</t>
   </si>
   <si>
-    <t>Einloggen als Moderator oder Wahlleiter oder Admin</t>
-  </si>
-  <si>
     <t>Öffnen der Software -&gt; Eingabe der Login-Daten -&gt; Button "Anmelden" anklicken</t>
   </si>
   <si>
@@ -90,24 +87,6 @@
     <t>Wahl bearbeiten (Moderator/Wahlleiter)</t>
   </si>
   <si>
-    <t>Verbindung zum Backend bearbeiten (Admin)</t>
-  </si>
-  <si>
-    <t>Verbindung zum Backend bearbeiten</t>
-  </si>
-  <si>
-    <t>Einstellungen -&gt; "Verbindung berarbeiten" auswählen -&gt; Zu bearbeitende Verbindung auswählen -&gt; Neue Verbingsdaten eingeben -&gt; Button "Speichern" anklicken</t>
-  </si>
-  <si>
-    <t>Einstellen der gewünschten Ebene (Admin)</t>
-  </si>
-  <si>
-    <t>Einstellen der gewünschten Ebene</t>
-  </si>
-  <si>
-    <t>Einstellungen -&gt; "Ebene auswählen" wählen -&gt; Gewünschte Ebene auswählen -&gt; Button "Speichern" anklicken</t>
-  </si>
-  <si>
     <t>Bundestagswahl durchführen (Wähler)</t>
   </si>
   <si>
@@ -213,12 +192,6 @@
     <t>Wahl anlegen ist fehlgeschlagen. Fehlermeldung "Liste der Themen wurde nicht importiert".</t>
   </si>
   <si>
-    <t>Verbindung wurde bearbeitet.</t>
-  </si>
-  <si>
-    <t>Ebene wurde ausgewählt.</t>
-  </si>
-  <si>
     <t>Wahl kann jetzt bearbeitet werden.</t>
   </si>
   <si>
@@ -406,6 +379,9 @@
   </si>
   <si>
     <t>Tatsächliches Ergebnis</t>
+  </si>
+  <si>
+    <t>Einloggen als Moderator oder Wahlleiter</t>
   </si>
 </sst>
 </file>
@@ -448,7 +424,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -754,23 +730,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="37.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="37.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="35" style="1" customWidth="1"/>
-    <col min="4" max="4" width="79.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="80.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="37.83203125" style="1"/>
+    <col min="4" max="4" width="79.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="80.42578125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="37.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -787,10 +763,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -798,16 +774,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -815,16 +791,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -832,16 +808,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -849,727 +825,693 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>23</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>25</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>26</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>27</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>28</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>29</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>30</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>31</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>32</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>33</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>34</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>35</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>36</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>37</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>38</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>39</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>15</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="D50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>40</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>16</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="C51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>17</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="E51" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>41</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>19</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>20</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>21</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>22</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>23</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>24</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>25</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>26</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>27</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="E52" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>42</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>43</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>28</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B55" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>44</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>45</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>29</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="B57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>46</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>30</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>31</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="B58" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>47</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>32</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>33</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>34</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>35</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>36</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>37</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>38</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>39</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>40</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>41</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>42</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>43</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="B59" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>44</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>45</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>46</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>47</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
